--- a/RewardsV2/Rewards.xlsx
+++ b/RewardsV2/Rewards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridan\Desktop\Predator_Prey_ExpSARSA\RewardsV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridan\Desktop\TESTDISOO\RewardsV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C22EAF9-51DD-4DA2-BCE8-35BD007A40A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8743AD00-D185-479A-A53D-4C8C627FB1CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -882,7 +882,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -956,16 +956,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -984,7 +984,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
@@ -1004,7 +1004,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
